--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
@@ -40,10 +40,10 @@
     <t>Mejor</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Sí</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-2.062471491098079</v>
+        <v>-1.759873895633086</v>
       </c>
       <c r="D2">
-        <v>0.03921400807773878</v>
+        <v>0.08742475010839024</v>
       </c>
       <c r="E2">
         <v>0.553338434169245</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1645397318711201</v>
+        <v>-0.160181847350048</v>
       </c>
       <c r="D3">
-        <v>0.8693128710459663</v>
+        <v>0.8736857220345882</v>
       </c>
       <c r="E3">
         <v>0.553338434169245</v>
@@ -479,7 +479,7 @@
         <v>0.5549640596899384</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.4474000118410724</v>
+        <v>0.5000231264769484</v>
       </c>
       <c r="D4">
-        <v>0.6546054979608158</v>
+        <v>0.6202797860514058</v>
       </c>
       <c r="E4">
         <v>0.553338434169245</v>
@@ -505,7 +505,7 @@
         <v>0.54857055893315</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.6886299301671239</v>
+        <v>-0.8489520434153063</v>
       </c>
       <c r="D5">
-        <v>0.491087883466931</v>
+        <v>0.401845933985733</v>
       </c>
       <c r="E5">
         <v>0.553338434169245</v>
@@ -531,7 +531,7 @@
         <v>0.5608049279619395</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.856771412457586</v>
+        <v>1.793963106982317</v>
       </c>
       <c r="D6">
-        <v>0.06340200003212493</v>
+        <v>0.08171671630001009</v>
       </c>
       <c r="E6">
         <v>0.5777943705098337</v>
@@ -557,7 +557,7 @@
         <v>0.5549640596899384</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.419133904230003</v>
+        <v>2.182839810154933</v>
       </c>
       <c r="D7">
-        <v>0.01559270112902311</v>
+        <v>0.03604886797550466</v>
       </c>
       <c r="E7">
         <v>0.5777943705098337</v>
@@ -583,7 +583,7 @@
         <v>0.54857055893315</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.602817197909142</v>
+        <v>1.596281245383899</v>
       </c>
       <c r="D8">
-        <v>0.1090376947970224</v>
+        <v>0.1196802553859901</v>
       </c>
       <c r="E8">
         <v>0.5777943705098337</v>
@@ -609,7 +609,7 @@
         <v>0.5608049279619395</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.6187307378681001</v>
+        <v>0.7514717581631893</v>
       </c>
       <c r="D9">
-        <v>0.5361217250140804</v>
+        <v>0.4575392062173886</v>
       </c>
       <c r="E9">
         <v>0.5549640596899384</v>
@@ -635,7 +635,7 @@
         <v>0.54857055893315</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5639264661046599</v>
+        <v>-0.4553226048435484</v>
       </c>
       <c r="D10">
-        <v>0.5728292736106777</v>
+        <v>0.6517716420648192</v>
       </c>
       <c r="E10">
         <v>0.5549640596899384</v>
@@ -661,7 +661,7 @@
         <v>0.5608049279619395</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.14218869667362</v>
+        <v>-1.012989453846747</v>
       </c>
       <c r="D11">
-        <v>0.2534298628680554</v>
+        <v>0.3182201180564375</v>
       </c>
       <c r="E11">
         <v>0.54857055893315</v>
@@ -687,7 +687,7 @@
         <v>0.5608049279619395</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
